--- a/biology/Histoire de la zoologie et de la botanique/Dollard_Senécal/Dollard_Senécal.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dollard_Senécal/Dollard_Senécal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dollard_Sen%C3%A9cal</t>
+          <t>Dollard_Senécal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dollard Senécal, né le 30 octobre 1912 à Montréal et mort en 2002, est un prêtre, professeur de sciences naturelles, professeur de latin et naturaliste canadien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dollard_Sen%C3%A9cal</t>
+          <t>Dollard_Senécal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dollard Senécal est né le 30 octobre 1912. Il est entré chez les jésuites en 1931. En 1936 il a fondé un cercle de Jeunes Naturalistes dont le nom était Ignace de Loyola. Il a mis sur pied des camps d'été pour les jeunes naturalistes durant 18 années. En 1952, en collaboration avec les membres de son cercle, il a organisé une grande exposition dont le succès a attiré l’attention des dirigeants de la Société Canadienne d’Histoire Naturelle. Par la suite, il s’est joint à l’organe de direction des Cercles des Jeunes Naturalistes. De 1950 à 1960, il a enseigné la botanique à des professeurs d’écoles primaires, lors de stages organisés par les CJN et le département de l’Instruction Publique. En 1955, il a créé le Bulletin Tour d’Horizon afin de venir en aide aux directeurs des cercles locaux. Il a aussi conçu des cahiers d’épreuves, des brevets et une formule: les « 3 M », afin d’initier les jeunes à la méthode scientifique. Après la création du ministère de l’Éducation du Québec, alors que les institutions scolaires ne permettaient plus que les élèves se réunissent après les cours, il a fondé le Club Provincial des Jeunes Naturalistes ainsi qu’une organisation destinée aux adultes: "Les Amis de la Nature". S’adressant, entre autres, aux membres de ces deux groupes, il rédige (sous divers pseudonymes; Vieux Jean, Bernard L’Ermite, Jean le Découvreur et Dan Laloupe) la revue Le Naturaliste de 1963 à 1976. Au cours de sa carrière, Dollard Senécal aura occupé une place au sein des organismes suivants :
 le Conseil québécois de l’environnement
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dollard_Sen%C3%A9cal</t>
+          <t>Dollard_Senécal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bénévole pendant 41 ans, il a rédigé pas moins de 100 feuillets du Naturaliste. Il a participé à plusieurs émissions de radio et de télévision locales. Il a aussi fait la traduction de certaines œuvres portant sur les sciences de la nature.
 </t>
